--- a/tests/popupteste-simples.xlsx
+++ b/tests/popupteste-simples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Desktop\ACO_SQC\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCA7CE-D534-4ACD-87FB-8725E1BEC7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53095B-4413-40EE-A56F-91502354C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="26655" windowHeight="7620" xr2:uid="{8CE70D03-3532-4215-B2E8-5E71B2909E5A}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{8CE70D03-3532-4215-B2E8-5E71B2909E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -80,9 +69,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Popup com imagem superior - Titulo, Subtítulo, Texto CTA (Botão)</t>
-  </si>
-  <si>
     <t>Exemplo de titulo</t>
   </si>
   <si>
@@ -95,9 +81,6 @@
     <t>exemplo de subtitulo</t>
   </si>
   <si>
-    <t>pequeno</t>
-  </si>
-  <si>
     <t>exemplo de texto de CTA</t>
   </si>
   <si>
@@ -108,6 +91,12 @@
   </si>
   <si>
     <t>exemplo-de-imagem.png</t>
+  </si>
+  <si>
+    <t>Popup com imagem superior - TituLO, Subtítulo, Texto CTA (Botão)</t>
+  </si>
+  <si>
+    <t>pequeNO</t>
   </si>
 </sst>
 </file>
@@ -638,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D469AE37-D089-44A0-988B-9737DD6E5A01}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -740,46 +729,46 @@
         <v>35575</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
